--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_0.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_0.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9993753488533889</v>
+        <v>0.9991794097906002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989452602485988</v>
+        <v>0.999053637660209</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9968643795654231</v>
+        <v>0.9988017275631308</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9720835670126999</v>
+        <v>0.9990757971449541</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9986712613136426</v>
+        <v>0.9992698647612761</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0005830844263450968</v>
+        <v>0.0007659849407275682</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009845532602087914</v>
+        <v>0.0008833877036892051</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002328589693741684</v>
+        <v>0.00110156939002538</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001836790584502234</v>
+        <v>0.0005724794550882928</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001034822188369967</v>
+        <v>0.0008370244225568365</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002649554622553404</v>
+        <v>0.002950934491336708</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02414714116298443</v>
+        <v>0.02767643294804387</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000516952673058</v>
+        <v>1.000679109138814</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02517513495376584</v>
+        <v>0.02885467599675643</v>
       </c>
       <c r="P2" t="n">
-        <v>120.8943571369406</v>
+        <v>120.348696096083</v>
       </c>
       <c r="Q2" t="n">
-        <v>185.4947758549552</v>
+        <v>184.9491148140977</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9992521784655164</v>
+        <v>0.9989963468160052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9988758394261116</v>
+        <v>0.9989655632766951</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9964275076148416</v>
+        <v>0.9986262311480355</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9672836756695289</v>
+        <v>0.9987939710878169</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9984476724448108</v>
+        <v>0.9991233599616738</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000698058576868876</v>
+        <v>0.0009368661919759876</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0010493545507787</v>
+        <v>0.0009656012746808108</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002653021665925319</v>
+        <v>0.001262902883961996</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002152604400321076</v>
+        <v>0.0007470511162109095</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001208953283456804</v>
+        <v>0.001004977000086453</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002904462474234234</v>
+        <v>0.003308263151168977</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02642079818758086</v>
+        <v>0.03060826999318954</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000618886787159</v>
+        <v>1.000830609531582</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02754558626501823</v>
+        <v>0.03191132741465331</v>
       </c>
       <c r="P3" t="n">
-        <v>120.534415075415</v>
+        <v>119.9459401812898</v>
       </c>
       <c r="Q3" t="n">
-        <v>185.1348337934296</v>
+        <v>184.5463588993044</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9991013715152506</v>
+        <v>0.9987681713008847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9987847749333659</v>
+        <v>0.9988430565191426</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9958812382519094</v>
+        <v>0.9984048477241048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9614830274334325</v>
+        <v>0.9984336024716746</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9981765924281868</v>
+        <v>0.9989372373258288</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0008388302452820023</v>
+        <v>0.001149858019593461</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001134359257487531</v>
+        <v>0.00107995595543085</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003058694876401801</v>
+        <v>0.001466420210871668</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002534264051069383</v>
+        <v>0.000970274435500281</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001420070502294724</v>
+        <v>0.001218347323185975</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00318791482106754</v>
+        <v>0.003706166628069645</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02896256627583271</v>
+        <v>0.03390955646412174</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000743692539103</v>
+        <v>1.001019444440647</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03019556268297226</v>
+        <v>0.03535315648525818</v>
       </c>
       <c r="P4" t="n">
-        <v>120.1670044035747</v>
+        <v>119.536233610904</v>
       </c>
       <c r="Q4" t="n">
-        <v>184.7674231215893</v>
+        <v>184.1366523289187</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9989167747620751</v>
+        <v>0.9984840062691545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9986664950070948</v>
+        <v>0.9986764750706347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9951998002133162</v>
+        <v>0.9981262528171091</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9544736160386339</v>
+        <v>0.9979748592474399</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9978480170281026</v>
+        <v>0.9987016023734647</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001011143211510351</v>
+        <v>0.00141511360331038</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001244768376772894</v>
+        <v>0.001235452425532483</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003564747706040832</v>
+        <v>0.001722531936653545</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002995455524160725</v>
+        <v>0.001254433989435362</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001675965147382404</v>
+        <v>0.001488478388605415</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003502845412857036</v>
+        <v>0.004149462791445914</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03179847813198535</v>
+        <v>0.03761799573755067</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000896462265869</v>
+        <v>1.001254615501389</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03315220517798816</v>
+        <v>0.03921947169608457</v>
       </c>
       <c r="P5" t="n">
-        <v>119.7933473913038</v>
+        <v>119.1210909321692</v>
       </c>
       <c r="Q5" t="n">
-        <v>184.3937661093184</v>
+        <v>183.7215096501838</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9986905594389826</v>
+        <v>0.9981304285858212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9985138883550976</v>
+        <v>0.9984537639294361</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9943496133299365</v>
+        <v>0.9977765384125311</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9459901019638072</v>
+        <v>0.9973929840872965</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9974491153332665</v>
+        <v>0.9984041781557849</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001222305285912145</v>
+        <v>0.001745162850435367</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00138721998775448</v>
+        <v>0.00144334349995215</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004196117623318348</v>
+        <v>0.002044023670487022</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003553637107861727</v>
+        <v>0.001614865222459128</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001986629937256439</v>
+        <v>0.001829444446473075</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00385291681052295</v>
+        <v>0.004642207972799899</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03496148289063473</v>
+        <v>0.04177514632452372</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001083674947049</v>
+        <v>1.001547231515182</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03644986559753573</v>
+        <v>0.04355360079003312</v>
       </c>
       <c r="P6" t="n">
-        <v>119.4140332492568</v>
+        <v>118.7018148073009</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.0144519672714</v>
+        <v>183.3022335253155</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9984131531655625</v>
+        <v>0.9976907583817537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9983182488958122</v>
+        <v>0.9981597833145576</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9932907768131729</v>
+        <v>0.997338424800994</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9357000904563979</v>
+        <v>0.9966570868320805</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9969639761961997</v>
+        <v>0.9980297029092754</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001481251865421667</v>
+        <v>0.002155575686640991</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001569840835417545</v>
+        <v>0.001717761499683695</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000498243594587572</v>
+        <v>0.002446780613710793</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004230679058738022</v>
+        <v>0.00207070244192551</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002364456479554014</v>
+        <v>0.002258741527818151</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004241981497183286</v>
+        <v>0.005189962488083757</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03848703503027567</v>
+        <v>0.04642817772259634</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001313252552638</v>
+        <v>1.001911096511652</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04012550779066021</v>
+        <v>0.04840472136782455</v>
       </c>
       <c r="P7" t="n">
-        <v>119.0297353874505</v>
+        <v>118.2793949022587</v>
       </c>
       <c r="Q7" t="n">
-        <v>183.6301541054651</v>
+        <v>182.8798136202733</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9980724706418694</v>
+        <v>0.9971443154799974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9980684158562007</v>
+        <v>0.9977755458129296</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9919709944596123</v>
+        <v>0.9967902949088699</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9231855787632184</v>
+        <v>0.9957288458096935</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9963724091636167</v>
+        <v>0.9975591521094168</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001799264047054645</v>
+        <v>0.002665656149359289</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001803049011492017</v>
+        <v>0.002076430341376389</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0005962539134576227</v>
+        <v>0.002950675297710479</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005054084300307828</v>
+        <v>0.002645683261109828</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002825169106882726</v>
+        <v>0.002798179279410153</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004674597553109956</v>
+        <v>0.005798921398375341</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04241773269582717</v>
+        <v>0.0516299927305756</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001595196710177</v>
+        <v>1.002363325120002</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04422354339350013</v>
+        <v>0.053827988409935</v>
       </c>
       <c r="P8" t="n">
-        <v>118.6407551208692</v>
+        <v>117.8546100835562</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.2411738388838</v>
+        <v>182.4550288015708</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9976540576234426</v>
+        <v>0.9964655770855719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9977509159931384</v>
+        <v>0.9972774607797231</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9903285917548655</v>
+        <v>0.9961058025837499</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9079637246959488</v>
+        <v>0.9945605445232228</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9956511033087704</v>
+        <v>0.996969070947108</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002189834233547315</v>
+        <v>0.003299228647383224</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002099421197027329</v>
+        <v>0.002541370856468494</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0007182228217181253</v>
+        <v>0.003579927686282126</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006055621933792284</v>
+        <v>0.003369364734507231</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003386922377755204</v>
+        <v>0.003474646210394679</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005155545695445674</v>
+        <v>0.006475895226322715</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04679566468752544</v>
+        <v>0.05743891231023812</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001941469553013</v>
+        <v>1.00292503965332</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04878785301365356</v>
+        <v>0.059884205722225</v>
       </c>
       <c r="P9" t="n">
-        <v>118.2478588609254</v>
+        <v>117.4281331620982</v>
       </c>
       <c r="Q9" t="n">
-        <v>182.84827757894</v>
+        <v>182.0285518801128</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.997140129589179</v>
+        <v>0.9956228183112436</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9973490831923745</v>
+        <v>0.9966359661918259</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9882855702771485</v>
+        <v>0.9952519565937348</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8894410971214342</v>
+        <v>0.9930928466472522</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9947712659733824</v>
+        <v>0.9962302009993641</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002669563494698895</v>
+        <v>0.004085906970384098</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002474514478119017</v>
+        <v>0.003140177895912483</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008699426760935101</v>
+        <v>0.004364866551148316</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007274337374428539</v>
+        <v>0.00427850159302545</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004072140025261024</v>
+        <v>0.004321684072086883</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005689960364887423</v>
+        <v>0.007228593566530187</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05166781875305842</v>
+        <v>0.06392109957114395</v>
       </c>
       <c r="N10" t="n">
-        <v>1.002366789305507</v>
+        <v>1.003622495190695</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05386742476450557</v>
+        <v>0.06664235311480506</v>
       </c>
       <c r="P10" t="n">
-        <v>117.8516806101333</v>
+        <v>117.0004231014803</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.4520993281479</v>
+        <v>181.6008418194949</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9965084078246351</v>
+        <v>0.9945768010290623</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9968418345877983</v>
+        <v>0.9958142631348136</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9857435141398514</v>
+        <v>0.9941881442300278</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8668691728185696</v>
+        <v>0.9912521097446153</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9936965858832385</v>
+        <v>0.9953063720446317</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00325924803251998</v>
+        <v>0.005062318188448093</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002948008784850502</v>
+        <v>0.003907201631037974</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001058722085008847</v>
+        <v>0.005342827072089621</v>
       </c>
       <c r="J11" t="n">
-        <v>0.008759480481804039</v>
+        <v>0.005418710209812418</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004909101283406444</v>
+        <v>0.005380758276925546</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006284081167805131</v>
+        <v>0.008065557029832762</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05708982424670774</v>
+        <v>0.07114996970096399</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00288959352444</v>
+        <v>1.004488164665604</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05952025625711822</v>
+        <v>0.07417897121187564</v>
       </c>
       <c r="P11" t="n">
-        <v>117.4525175501638</v>
+        <v>116.5718615211747</v>
       </c>
       <c r="Q11" t="n">
-        <v>182.0529362681785</v>
+        <v>181.1722802391893</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9957316251227774</v>
+        <v>0.993278747504011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9962032645255084</v>
+        <v>0.9947663168825226</v>
       </c>
       <c r="D12" t="n">
-        <v>0.982584009810838</v>
+        <v>0.9928642712575318</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8393302989977089</v>
+        <v>0.9889463233072686</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9923826539702792</v>
+        <v>0.9941526136752998</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003984340587884284</v>
+        <v>0.006273994176118953</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003544085908011859</v>
+        <v>0.004885413458027513</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001293354731764943</v>
+        <v>0.006559860776539708</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01057142917041205</v>
+        <v>0.006846984701711396</v>
       </c>
       <c r="K12" t="n">
-        <v>0.005932391951088497</v>
+        <v>0.006703422739125551</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006944384209504783</v>
+        <v>0.00899632073015141</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06312163327959983</v>
+        <v>0.07920854863030223</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003532448174253</v>
+        <v>1.00556241585875</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06580885188810653</v>
+        <v>0.08258062052979391</v>
       </c>
       <c r="P12" t="n">
-        <v>117.050766907974</v>
+        <v>116.1426841949411</v>
       </c>
       <c r="Q12" t="n">
-        <v>181.6511856259886</v>
+        <v>180.7431029129557</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9947766427628293</v>
+        <v>0.9916682645458392</v>
       </c>
       <c r="C13" t="n">
-        <v>0.995401890291281</v>
+        <v>0.9934348625981819</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9786598914616591</v>
+        <v>0.9912176606434961</v>
       </c>
       <c r="E13" t="n">
-        <v>0.805737387392402</v>
+        <v>0.9860617137730795</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9907765081497697</v>
+        <v>0.9927130850417164</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004875774702014917</v>
+        <v>0.007777309325540633</v>
       </c>
       <c r="H13" t="n">
-        <v>0.004292133579399763</v>
+        <v>0.006128267588371077</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001584769516671897</v>
+        <v>0.00807358653197115</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01278170953720225</v>
+        <v>0.008633799885476579</v>
       </c>
       <c r="K13" t="n">
-        <v>0.007183258919805494</v>
+        <v>0.008353693208723863</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007677749674436658</v>
+        <v>0.01003155460055974</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06982674775481755</v>
+        <v>0.08818905445428379</v>
       </c>
       <c r="N13" t="n">
-        <v>1.004322778403176</v>
+        <v>1.006895229341374</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0727994169680347</v>
+        <v>0.09194344507891222</v>
       </c>
       <c r="P13" t="n">
-        <v>116.6469525478477</v>
+        <v>115.7130896913124</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.2473712658624</v>
+        <v>180.3135084093271</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9936023494142608</v>
+        <v>0.9896704419746739</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9943981771506861</v>
+        <v>0.9917484675785576</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9737898245355536</v>
+        <v>0.9891716239127197</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7647318681399508</v>
+        <v>0.9824560419669111</v>
       </c>
       <c r="F14" t="n">
-        <v>0.988812188959961</v>
+        <v>0.9909186008387482</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005971925997382962</v>
+        <v>0.009642189001447839</v>
       </c>
       <c r="H14" t="n">
-        <v>0.005229055738230244</v>
+        <v>0.0077024433150043</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001946432794755862</v>
+        <v>0.009954503896122131</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01547971009156362</v>
+        <v>0.01086726304732769</v>
       </c>
       <c r="K14" t="n">
-        <v>0.008713071443159741</v>
+        <v>0.01041088347172491</v>
       </c>
       <c r="L14" t="n">
-        <v>0.008492325463014028</v>
+        <v>0.01118308728843392</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07727823754061011</v>
+        <v>0.09819464853772755</v>
       </c>
       <c r="N14" t="n">
-        <v>1.005294607381301</v>
+        <v>1.008548599745097</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08056813210071878</v>
+        <v>0.1023749980169233</v>
       </c>
       <c r="P14" t="n">
-        <v>116.2413715819578</v>
+        <v>115.2832142425966</v>
       </c>
       <c r="Q14" t="n">
-        <v>180.8417902999725</v>
+        <v>179.8836329606112</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9921579182425753</v>
+        <v>0.9871921406567569</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9931435058715542</v>
+        <v>0.989617986090404</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9677473035313047</v>
+        <v>0.9866303127952089</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7146124162782506</v>
+        <v>0.9779529623117362</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9864069175799888</v>
+        <v>0.9886830883314044</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007320239092950777</v>
+        <v>0.01195557449686827</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00640023630359586</v>
+        <v>0.009691154266866599</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002395165427684064</v>
+        <v>0.01229072598673062</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01877737126918842</v>
+        <v>0.01365660801974259</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01058629769795469</v>
+        <v>0.0129736670032366</v>
       </c>
       <c r="L15" t="n">
-        <v>0.009396644400434327</v>
+        <v>0.01246423871103997</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08555839580631919</v>
+        <v>0.1093415497277603</v>
       </c>
       <c r="N15" t="n">
-        <v>1.0064899986958</v>
+        <v>1.010599607732339</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08920079384608964</v>
+        <v>0.1139964458678822</v>
       </c>
       <c r="P15" t="n">
-        <v>115.8342245771418</v>
+        <v>114.8531152485628</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.4346432951565</v>
+        <v>179.4535339665774</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9903831481495088</v>
+        <v>0.9841175634327322</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9915796383749264</v>
+        <v>0.9869321481626967</v>
       </c>
       <c r="D16" t="n">
-        <v>0.960273794853761</v>
+        <v>0.9834760176151518</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6534771050743823</v>
+        <v>0.9723327499245471</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9834681647135975</v>
+        <v>0.9858999898936139</v>
       </c>
       <c r="G16" t="n">
-        <v>0.008976909071424935</v>
+        <v>0.01482555737715297</v>
       </c>
       <c r="H16" t="n">
-        <v>0.007860037965848514</v>
+        <v>0.01219826607772194</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002950166763008811</v>
+        <v>0.0151904630670007</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02279983230677744</v>
+        <v>0.01713793910126026</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01287499953489312</v>
+        <v>0.01616420108413048</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01039977826109072</v>
+        <v>0.01388992450618331</v>
       </c>
       <c r="M16" t="n">
-        <v>0.09474655176535415</v>
+        <v>0.1217602454709786</v>
       </c>
       <c r="N16" t="n">
-        <v>1.007958773945234</v>
+        <v>1.01314408543498</v>
       </c>
       <c r="O16" t="n">
-        <v>0.09878010862640563</v>
+        <v>0.1269438311991335</v>
       </c>
       <c r="P16" t="n">
-        <v>115.4261993146385</v>
+        <v>114.4228054753906</v>
       </c>
       <c r="Q16" t="n">
-        <v>180.0266180326532</v>
+        <v>179.0232241934052</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9882009317934731</v>
+        <v>0.9803022973789955</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9896321821698465</v>
+        <v>0.9835515907577815</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9510262740210423</v>
+        <v>0.9795624206211375</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5787187298782316</v>
+        <v>0.9653212237539879</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9798693294493914</v>
+        <v>0.9824365955288424</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0110139122515568</v>
+        <v>0.01838694076749175</v>
       </c>
       <c r="H17" t="n">
-        <v>0.009677902849842945</v>
+        <v>0.01535386802589025</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003636910651595426</v>
+        <v>0.01878822474527585</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0277186369311162</v>
+        <v>0.02148109240309662</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01567777379135581</v>
+        <v>0.02013462397910821</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01151245833237069</v>
+        <v>0.01547695750231296</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1049471879163839</v>
+        <v>0.1355984541486066</v>
       </c>
       <c r="N17" t="n">
-        <v>1.009764746101953</v>
+        <v>1.016301546996693</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1094150069766126</v>
+        <v>0.1413711610692091</v>
       </c>
       <c r="P17" t="n">
-        <v>115.01719211033</v>
+        <v>113.9922292144994</v>
       </c>
       <c r="Q17" t="n">
-        <v>179.6176108283446</v>
+        <v>178.592647932514</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9855203194486287</v>
+        <v>0.9755652525850851</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9872130743583098</v>
+        <v>0.9793011096689798</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9396163503710393</v>
+        <v>0.974708144545906</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4874427501830709</v>
+        <v>0.9565740936808881</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9754696429305497</v>
+        <v>0.978127059112361</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01351614621018629</v>
+        <v>0.02280876415037236</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0119360338053519</v>
+        <v>0.01932150554773012</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004484239949644273</v>
+        <v>0.02325075077080856</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0337242344288896</v>
+        <v>0.02689933173280104</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01910425130594572</v>
+        <v>0.02507506109154961</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01274573147872364</v>
+        <v>0.01724456329648125</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1162589618489099</v>
+        <v>0.1510257069189625</v>
       </c>
       <c r="N18" t="n">
-        <v>1.011983183904583</v>
+        <v>1.020221859929585</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1212083465440463</v>
+        <v>0.1574551839288148</v>
       </c>
       <c r="P18" t="n">
-        <v>114.6077405852505</v>
+        <v>113.5612208486429</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.2081593032651</v>
+        <v>178.1616395666575</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9822285229746514</v>
+        <v>0.9696799297740715</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9842133197458772</v>
+        <v>0.9739606665384185</v>
       </c>
       <c r="D19" t="n">
-        <v>0.925558390867405</v>
+        <v>0.9686893577850352</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3758661570552557</v>
+        <v>0.9456627132088107</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9700862042422314</v>
+        <v>0.9727659726195407</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01658889372547867</v>
+        <v>0.02830245465863923</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01473617306204844</v>
+        <v>0.02430657479174848</v>
       </c>
       <c r="I19" t="n">
-        <v>0.005528218973834358</v>
+        <v>0.02878380907780583</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0410655317859424</v>
+        <v>0.03365817381255845</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02329687537988838</v>
+        <v>0.03122099144518214</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01411125816393234</v>
+        <v>0.01921436697247562</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1287978793516364</v>
+        <v>0.1682333339699336</v>
       </c>
       <c r="N19" t="n">
-        <v>1.014707429262357</v>
+        <v>1.025092471911113</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1342810717240013</v>
+        <v>0.1753953752880444</v>
       </c>
       <c r="P19" t="n">
-        <v>114.1980437204345</v>
+        <v>113.12961348208</v>
       </c>
       <c r="Q19" t="n">
-        <v>178.7984624384492</v>
+        <v>177.7300322000946</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9781924523252785</v>
+        <v>0.9623590680375311</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9805040387133819</v>
+        <v>0.9672503887680126</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9082906633499367</v>
+        <v>0.9612312703222408</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2396402193898172</v>
+        <v>0.9320457294301098</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9635084973685707</v>
+        <v>0.9660968002495711</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02035638851364225</v>
+        <v>0.03513615774100914</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01819862408726322</v>
+        <v>0.03057032454327039</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006810563350982865</v>
+        <v>0.03564001356383367</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05002865826355137</v>
+        <v>0.04209294915545653</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02841959596546671</v>
+        <v>0.03886650676322374</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01562287249631617</v>
+        <v>0.02141175605573623</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1426758161485059</v>
+        <v>0.1874464129851759</v>
       </c>
       <c r="N20" t="n">
-        <v>1.018047625661838</v>
+        <v>1.031151116106871</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1487498210216031</v>
+        <v>0.1954263948535221</v>
       </c>
       <c r="P20" t="n">
-        <v>113.788720968971</v>
+        <v>112.6970490873277</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.3891396869857</v>
+        <v>177.2974678053423</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9732645040289526</v>
+        <v>0.9532319073595785</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9759416390564983</v>
+        <v>0.9588074229288014</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8871982080742418</v>
+        <v>0.9520006785664478</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0733101567308263</v>
+        <v>0.9150389423797786</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9554767431723643</v>
+        <v>0.9578011564237764</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02495641193633242</v>
+        <v>0.04365596159782745</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02245742390076475</v>
+        <v>0.03845146255080606</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008376941520645411</v>
+        <v>0.04412567760578447</v>
       </c>
       <c r="J21" t="n">
-        <v>0.06097251678411119</v>
+        <v>0.05262747210160466</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0346747291523783</v>
+        <v>0.04837660313271076</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01729197321576965</v>
+        <v>0.02386825553828479</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1579759853152764</v>
+        <v>0.2089400909299779</v>
       </c>
       <c r="N21" t="n">
-        <v>1.022125927700177</v>
+        <v>1.038704628392073</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1647013500655195</v>
+        <v>0.2178351031664814</v>
       </c>
       <c r="P21" t="n">
-        <v>113.3812489967302</v>
+        <v>112.2628308575051</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.9816677147448</v>
+        <v>176.8632495755197</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9673810012304015</v>
+        <v>0.9418024520084519</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9704616380345786</v>
+        <v>0.9481440764099518</v>
       </c>
       <c r="D22" t="n">
-        <v>0.862102747669877</v>
+        <v>0.9405914960193171</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1280112004394931</v>
+        <v>0.8937869549395353</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9457760556225239</v>
+        <v>0.9474851571507379</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03044840354285483</v>
+        <v>0.05432485647299744</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02757276431048275</v>
+        <v>0.04840522845933658</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01024059280359131</v>
+        <v>0.05461411568750109</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07421866372121734</v>
+        <v>0.06579160173278825</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04222962826240433</v>
+        <v>0.06020282775063607</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01909866210426552</v>
+        <v>0.02662789593309409</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1744947092116401</v>
+        <v>0.233076932520139</v>
       </c>
       <c r="N22" t="n">
-        <v>1.026995033464495</v>
+        <v>1.048163487993005</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1819233102366239</v>
+        <v>0.2429995000732857</v>
       </c>
       <c r="P22" t="n">
-        <v>112.9834434300135</v>
+        <v>111.8255467896992</v>
       </c>
       <c r="Q22" t="n">
-        <v>177.5838621480281</v>
+        <v>176.4259655077139</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9603265111178667</v>
+        <v>0.9272382506292345</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9638562216992079</v>
+        <v>0.9344427508298898</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8308979775561771</v>
+        <v>0.9262828140250743</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.370273788227288</v>
+        <v>0.8670292932118077</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9340546556777879</v>
+        <v>0.9345191157512902</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03703346040657855</v>
+        <v>0.06791989916594247</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03373863051528435</v>
+        <v>0.06119481446964014</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01255793661475782</v>
+        <v>0.06776805765552879</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09015858127544797</v>
+        <v>0.0823661140508294</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0513582589451029</v>
+        <v>0.07506705117065393</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02105796572389652</v>
+        <v>0.02979208080344189</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1924407971470149</v>
+        <v>0.2606144646138093</v>
       </c>
       <c r="N23" t="n">
-        <v>1.032833232178317</v>
+        <v>1.060216620168909</v>
       </c>
       <c r="O23" t="n">
-        <v>0.200633400288931</v>
+        <v>0.2717093619187335</v>
       </c>
       <c r="P23" t="n">
-        <v>112.5918668793796</v>
+        <v>111.3788524431611</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.1922855973942</v>
+        <v>175.9792711611757</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9516218542139124</v>
+        <v>0.907735768574069</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9555164713623909</v>
+        <v>0.9159137827834081</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7920021228592111</v>
+        <v>0.9068757208046488</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.6743678165303477</v>
+        <v>0.832660289417483</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9193546858758334</v>
+        <v>0.9174525599835042</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04515887553614167</v>
+        <v>0.08612461010441605</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04152342138197194</v>
+        <v>0.07849079281333357</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01544643948895377</v>
+        <v>0.08560895859191774</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1101667624153708</v>
+        <v>0.103655323943095</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06280660095216226</v>
+        <v>0.0946320895757739</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02321333509527267</v>
+        <v>0.03369460920626129</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2125061776423021</v>
+        <v>0.293469947531968</v>
       </c>
       <c r="N24" t="n">
-        <v>1.040037086167797</v>
+        <v>1.076356605318012</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2215530055729664</v>
+        <v>0.3059635707649439</v>
       </c>
       <c r="P24" t="n">
-        <v>112.1951368791293</v>
+        <v>110.9039201534961</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.795555597144</v>
+        <v>175.5043388715108</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9409486137621457</v>
+        <v>0.8783666134977264</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9452723730466772</v>
+        <v>0.8878768526328649</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7306284405800085</v>
+        <v>0.8787044885511485</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.030737565989904</v>
+        <v>0.7777519546128784</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9013748033606448</v>
+        <v>0.8913230396449071</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05512187699675695</v>
+        <v>0.1135394272112678</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05108583749574433</v>
+        <v>0.1046620364298672</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02000420172466301</v>
+        <v>0.1115067145403322</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1336144787015638</v>
+        <v>0.1376672223235493</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07680934021311342</v>
+        <v>0.1245868781041642</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02515966330551066</v>
+        <v>0.03866972684437579</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2347804868313313</v>
+        <v>0.3369561206021754</v>
       </c>
       <c r="N25" t="n">
-        <v>1.048870112748569</v>
+        <v>1.100662112967399</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2447755782183491</v>
+        <v>0.3513010402515381</v>
       </c>
       <c r="P25" t="n">
-        <v>111.7964171998801</v>
+        <v>110.3512102521423</v>
       </c>
       <c r="Q25" t="n">
-        <v>176.3968359178947</v>
+        <v>174.9516289701569</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9283134478629567</v>
+        <v>0.8446095710799383</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9333780249082584</v>
+        <v>0.8553420118797116</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6526830513789511</v>
+        <v>0.8368405715492532</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.411704016486773</v>
+        <v>0.7268299517900717</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8815658118513465</v>
+        <v>0.8607802731382452</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06691624974396684</v>
+        <v>0.1450501445453648</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06218868938141665</v>
+        <v>0.1350318821584805</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02579262011761679</v>
+        <v>0.1499921274538922</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1586805603747569</v>
+        <v>0.1692098650116184</v>
       </c>
       <c r="K26" t="n">
-        <v>0.09223659024618684</v>
+        <v>0.1596009962327553</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02865860632459172</v>
+        <v>0.04452616387457131</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2586817537901868</v>
+        <v>0.3808544926154408</v>
       </c>
       <c r="N26" t="n">
-        <v>1.059326801768588</v>
+        <v>1.128598975657982</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2696943715940864</v>
+        <v>0.3970682568435657</v>
       </c>
       <c r="P26" t="n">
-        <v>111.408626890638</v>
+        <v>109.8613515437885</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.0090456086526</v>
+        <v>174.4617702618031</v>
       </c>
     </row>
   </sheetData>
